--- a/CarlIndBasedB-H.xlsx
+++ b/CarlIndBasedB-H.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20403"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lewis.coggins\Documents\GitHub\GulfSturgeon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2427527-892D-4804-9A83-EC145F8BEAFE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A4C43E-6A25-41C4-9506-838C261AED91}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{A96E3763-E0E6-4049-AEC8-175D1F7C09D2}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>N</t>
   </si>
@@ -67,6 +67,18 @@
   </si>
   <si>
     <t>R=alpha*S/(1+s*beta)</t>
+  </si>
+  <si>
+    <t>Heads</t>
+  </si>
+  <si>
+    <t>Flips</t>
+  </si>
+  <si>
+    <t>Success Prob</t>
+  </si>
+  <si>
+    <t>Distributio</t>
   </si>
 </sst>
 </file>
@@ -533,136 +545,136 @@
                   <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>730</c:v>
+                  <c:v>471</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>516</c:v>
+                  <c:v>447.59999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>510.59999999999997</c:v>
+                  <c:v>421.55999999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>421.35999999999996</c:v>
+                  <c:v>380.93599999999992</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>509.81599999999997</c:v>
+                  <c:v>365.56159999999994</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>377.88959999999997</c:v>
+                  <c:v>350.33695999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>388.73375999999996</c:v>
+                  <c:v>358.20217600000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>283.24025599999993</c:v>
+                  <c:v>349.92130559999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>309.94415359999994</c:v>
+                  <c:v>337.95278336000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>407.96649215999992</c:v>
+                  <c:v>353.77167001600003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>323.77989529599995</c:v>
+                  <c:v>359.26300200959997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>377.26793717759995</c:v>
+                  <c:v>352.55780120575997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>307.36076230655999</c:v>
+                  <c:v>338.53468072345595</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>229.41645738393598</c:v>
+                  <c:v>334.12080843407352</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>247.64987443036159</c:v>
+                  <c:v>337.47248506044411</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>259.58992465821694</c:v>
+                  <c:v>334.48349103626646</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>277.75395479493017</c:v>
+                  <c:v>349.69009462175984</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>207.65237287695808</c:v>
+                  <c:v>337.81405677305588</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>249.59142372617484</c:v>
+                  <c:v>347.68843406383348</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>261.7548542357049</c:v>
+                  <c:v>322.61306043830007</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>256.05291254142293</c:v>
+                  <c:v>332.56783626297999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>310.63174752485372</c:v>
+                  <c:v>329.54070175778799</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>496.37904851491226</c:v>
+                  <c:v>335.7244210546728</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>394.82742910894734</c:v>
+                  <c:v>336.4346526328037</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>373.89645746536837</c:v>
+                  <c:v>347.8607915796822</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>477.337874479221</c:v>
+                  <c:v>340.71647494780927</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>370.40272468753261</c:v>
+                  <c:v>342.42988496868554</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>405.24163481251958</c:v>
+                  <c:v>341.45793098121135</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>348.14498088751174</c:v>
+                  <c:v>329.87475858872676</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>520.88698853250708</c:v>
+                  <c:v>328.92485515323608</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>615.5321931195042</c:v>
+                  <c:v>328.35491309194163</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>501.31931587170249</c:v>
+                  <c:v>327.01294785516495</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>454.79158952302146</c:v>
+                  <c:v>324.20776871309897</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>447.87495371381289</c:v>
+                  <c:v>331.52466122785938</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>462.7249722282877</c:v>
+                  <c:v>333.91479673671563</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>456.6349833369726</c:v>
+                  <c:v>328.34887804202936</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>404.98099000218355</c:v>
+                  <c:v>329.00932682521761</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>341.9885940013101</c:v>
+                  <c:v>341.40559609513059</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>305.19315640078605</c:v>
+                  <c:v>336.84335765707834</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>312.11589384047159</c:v>
+                  <c:v>332.10601459424697</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>249.26953630428295</c:v>
+                  <c:v>333.26360875654814</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>303.56172178256975</c:v>
+                  <c:v>337.95816525392888</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>294.13703306954187</c:v>
+                  <c:v>333.77489915235731</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>256.48221984172511</c:v>
+                  <c:v>317.26493949141434</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -696,139 +708,139 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="45"/>
                 <c:pt idx="0">
-                  <c:v>430</c:v>
+                  <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78</c:v>
+                  <c:v>165</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>201</c:v>
+                  <c:v>153</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>115</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>257</c:v>
+                  <c:v>137</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>72</c:v>
+                  <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>162</c:v>
+                  <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>50</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>140</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>222</c:v>
+                  <c:v>151</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>79</c:v>
+                  <c:v>147</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>183</c:v>
+                  <c:v>137</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>81</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45</c:v>
+                  <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>110</c:v>
+                  <c:v>137</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>111</c:v>
+                  <c:v>132</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>122</c:v>
+                  <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>41</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>125</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>157</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>310</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="29">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>137</c:v>
                 </c:pt>
-                <c:pt idx="25">
-                  <c:v>253</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>183</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>312</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>303</c:v>
-                </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="34">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>132</c:v>
                 </c:pt>
-                <c:pt idx="32">
-                  <c:v>154</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>194</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>179</c:v>
-                </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>131</c:v>
                 </c:pt>
-                <c:pt idx="37">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>154</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>112</c:v>
-                </c:pt>
                 <c:pt idx="43">
-                  <c:v>80</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>120</c:v>
+                  <c:v>132</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1601,16 +1613,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>276224</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>300037</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:rowOff>11907</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>419099</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>442912</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:rowOff>78582</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1938,11 +1950,12 @@
   <dimension ref="A1:U53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1975,14 +1988,22 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6</v>
-      </c>
-      <c r="E4">
-        <f ca="1">EXP(_xlfn.NORM.INV(RAND(),0,sd.R))</f>
-        <v>1.0194354170207467</v>
+        <v>9.9999999999999995E-8</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" t="s">
+        <v>12</v>
+      </c>
       <c r="U7" t="s">
         <v>11</v>
       </c>
@@ -2006,6 +2027,19 @@
       <c r="F8" t="s">
         <v>8</v>
       </c>
+      <c r="H8">
+        <v>1000</v>
+      </c>
+      <c r="I8">
+        <v>0.05</v>
+      </c>
+      <c r="J8">
+        <v>0.05</v>
+      </c>
+      <c r="K8">
+        <f>_xlfn.BINOM.INV(H8,MIN(0.9999,I8),J8)</f>
+        <v>39</v>
+      </c>
       <c r="U8" t="s">
         <v>10</v>
       </c>
@@ -2018,7 +2052,7 @@
         <v>500</v>
       </c>
       <c r="C9" s="2">
-        <f>B9*alpha/(1+B9*beta)</f>
+        <f t="shared" ref="C9:C53" si="0">B9*alpha/(1+B9*beta)</f>
         <v>153.36538461538461</v>
       </c>
       <c r="D9" s="2">
@@ -2026,12 +2060,27 @@
         <v>500</v>
       </c>
       <c r="E9">
-        <f t="shared" ref="E9:E21" ca="1" si="0">_xlfn.BINOM.INV(D9,MIN(0.9999,F9),RAND())</f>
-        <v>430</v>
+        <f t="shared" ref="E9:E21" ca="1" si="1">_xlfn.BINOM.INV(D9,MIN(0.9999,F9),RAND())</f>
+        <v>171</v>
       </c>
       <c r="F9" s="1">
         <f ca="1">(alpha*EXP(_xlfn.NORM.INV(RAND(),0,sd.R)))/(1+D9*beta)</f>
-        <v>0.86474604826317103</v>
+        <v>0.30673076128122917</v>
+      </c>
+      <c r="H9">
+        <f>H8</f>
+        <v>1000</v>
+      </c>
+      <c r="I9">
+        <f>I8</f>
+        <v>0.05</v>
+      </c>
+      <c r="J9">
+        <v>0.1</v>
+      </c>
+      <c r="K9">
+        <f t="shared" ref="K9:K27" si="2">_xlfn.BINOM.INV(H9,MIN(0.9999,I9),J9)</f>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
@@ -2039,24 +2088,39 @@
         <v>2</v>
       </c>
       <c r="B10" s="2">
-        <f>B9*(1-M)+C9</f>
+        <f t="shared" ref="B10:B53" si="3">B9*(1-M)+C9</f>
         <v>453.36538461538464</v>
       </c>
       <c r="C10" s="2">
-        <f>B10*alpha/(1+B10*beta)</f>
+        <f t="shared" si="0"/>
         <v>148.47046552336829</v>
       </c>
       <c r="D10" s="2">
-        <f ca="1">D9*(1-M)+E9</f>
-        <v>730</v>
+        <f t="shared" ref="D10:D53" ca="1" si="4">D9*(1-M)+E9</f>
+        <v>471</v>
       </c>
       <c r="E10">
         <f ca="1">_xlfn.BINOM.INV(D10,MIN(0.9999,F10),RAND())</f>
-        <v>78</v>
+        <v>165</v>
       </c>
       <c r="F10" s="1">
-        <f ca="1">(alpha*EXP(_xlfn.NORM.INV(RAND(),0,sd.R)))/(1+D10*beta)</f>
-        <v>0.10475101849192199</v>
+        <f t="shared" ref="F9:F53" ca="1" si="5">(alpha*EXP(_xlfn.NORM.INV(RAND(),0,sd.R)))/(1+D10*beta)</f>
+        <v>0.31931506704791368</v>
+      </c>
+      <c r="H10">
+        <f t="shared" ref="H10:H21" si="6">H9</f>
+        <v>1000</v>
+      </c>
+      <c r="I10">
+        <f t="shared" ref="I10:I21" si="7">I9</f>
+        <v>0.05</v>
+      </c>
+      <c r="J10">
+        <v>0.15</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="2"/>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -2064,24 +2128,39 @@
         <v>3</v>
       </c>
       <c r="B11" s="2">
-        <f>B10*(1-M)+C10</f>
+        <f t="shared" si="3"/>
         <v>420.48969629259909</v>
       </c>
       <c r="C11" s="2">
-        <f>B11*alpha/(1+B11*beta)</f>
+        <f t="shared" si="0"/>
         <v>144.6016977384941</v>
       </c>
       <c r="D11" s="2">
-        <f ca="1">D10*(1-M)+E10</f>
-        <v>516</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>447.59999999999997</v>
       </c>
       <c r="E11">
-        <f t="shared" ca="1" si="0"/>
-        <v>201</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>153</v>
       </c>
       <c r="F11" s="1">
-        <f ca="1">(alpha*EXP(_xlfn.NORM.INV(RAND(),0,sd.R)))/(1+D11*beta)</f>
-        <v>0.4426261755924204</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.33024785879397001</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="6"/>
+        <v>1000</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="7"/>
+        <v>0.05</v>
+      </c>
+      <c r="J11">
+        <v>0.2</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="2"/>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -2089,24 +2168,39 @@
         <v>4</v>
       </c>
       <c r="B12" s="2">
-        <f>B11*(1-M)+C11</f>
+        <f t="shared" si="3"/>
         <v>396.8955155140535</v>
       </c>
       <c r="C12" s="2">
-        <f>B12*alpha/(1+B12*beta)</f>
+        <f t="shared" si="0"/>
         <v>141.57737140207843</v>
       </c>
       <c r="D12" s="2">
-        <f ca="1">D11*(1-M)+E11</f>
-        <v>510.59999999999997</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>421.55999999999995</v>
       </c>
       <c r="E12">
-        <f t="shared" ca="1" si="0"/>
-        <v>115</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>128</v>
       </c>
       <c r="F12" s="1">
-        <f ca="1">(alpha*EXP(_xlfn.NORM.INV(RAND(),0,sd.R)))/(1+D12*beta)</f>
-        <v>0.24013270063352654</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.34332899405192785</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="6"/>
+        <v>1000</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="7"/>
+        <v>0.05</v>
+      </c>
+      <c r="J12">
+        <v>0.25</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="2"/>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -2114,24 +2208,39 @@
         <v>5</v>
       </c>
       <c r="B13" s="2">
-        <f>B12*(1-M)+C12</f>
+        <f t="shared" si="3"/>
         <v>379.71468071051049</v>
       </c>
       <c r="C13" s="2">
-        <f>B13*alpha/(1+B13*beta)</f>
+        <f t="shared" si="0"/>
         <v>139.22923657177657</v>
       </c>
       <c r="D13" s="2">
-        <f ca="1">D12*(1-M)+E12</f>
-        <v>421.35999999999996</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>380.93599999999992</v>
       </c>
       <c r="E13">
-        <f t="shared" ca="1" si="0"/>
-        <v>257</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>137</v>
       </c>
       <c r="F13" s="1">
-        <f ca="1">(alpha*EXP(_xlfn.NORM.INV(RAND(),0,sd.R)))/(1+D13*beta)</f>
-        <v>0.60821606228035541</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.36594201233211532</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="6"/>
+        <v>1000</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="7"/>
+        <v>0.05</v>
+      </c>
+      <c r="J13">
+        <v>0.3</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="2"/>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -2139,24 +2248,39 @@
         <v>6</v>
       </c>
       <c r="B14" s="2">
-        <f>B13*(1-M)+C13</f>
+        <f t="shared" si="3"/>
         <v>367.05804499808289</v>
       </c>
       <c r="C14" s="2">
-        <f>B14*alpha/(1+B14*beta)</f>
+        <f t="shared" si="0"/>
         <v>137.41382509070851</v>
       </c>
       <c r="D14" s="2">
-        <f ca="1">D13*(1-M)+E13</f>
-        <v>509.81599999999997</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>365.56159999999994</v>
       </c>
       <c r="E14">
-        <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>131</v>
       </c>
       <c r="F14" s="1">
-        <f ca="1">(alpha*EXP(_xlfn.NORM.INV(RAND(),0,sd.R)))/(1+D14*beta)</f>
-        <v>0.14075935857710151</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.375296866992814</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="6"/>
+        <v>1000</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="7"/>
+        <v>0.05</v>
+      </c>
+      <c r="J14">
+        <v>0.35</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="2"/>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -2164,24 +2288,39 @@
         <v>7</v>
       </c>
       <c r="B15" s="2">
-        <f>B14*(1-M)+C14</f>
+        <f t="shared" si="3"/>
         <v>357.64865208955825</v>
       </c>
       <c r="C15" s="2">
-        <f>B15*alpha/(1+B15*beta)</f>
+        <f t="shared" si="0"/>
         <v>136.01400448444628</v>
       </c>
       <c r="D15" s="2">
-        <f ca="1">D14*(1-M)+E14</f>
-        <v>377.88959999999997</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>350.33695999999998</v>
       </c>
       <c r="E15">
-        <f t="shared" ca="1" si="0"/>
-        <v>162</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>148</v>
       </c>
       <c r="F15" s="1">
-        <f ca="1">(alpha*EXP(_xlfn.NORM.INV(RAND(),0,sd.R)))/(1+D15*beta)</f>
-        <v>0.41743787784323511</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.38504421398204225</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="6"/>
+        <v>1000</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="7"/>
+        <v>0.05</v>
+      </c>
+      <c r="J15">
+        <v>0.4</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="2"/>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -2189,424 +2328,604 @@
         <v>8</v>
       </c>
       <c r="B16" s="2">
-        <f>B15*(1-M)+C15</f>
+        <f t="shared" si="3"/>
         <v>350.60319573818123</v>
       </c>
       <c r="C16" s="2">
-        <f>B16*alpha/(1+B16*beta)</f>
+        <f t="shared" si="0"/>
         <v>134.93645394650127</v>
       </c>
       <c r="D16" s="2">
-        <f ca="1">D15*(1-M)+E15</f>
-        <v>388.73375999999996</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>358.20217600000001</v>
       </c>
       <c r="E16">
-        <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>135</v>
       </c>
       <c r="F16" s="1">
-        <f ca="1">(alpha*EXP(_xlfn.NORM.INV(RAND(),0,sd.R)))/(1+D16*beta)</f>
-        <v>0.11910450225386504</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.37994615613377375</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="6"/>
+        <v>1000</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="7"/>
+        <v>0.05</v>
+      </c>
+      <c r="J16">
+        <v>0.45</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>9</v>
       </c>
       <c r="B17" s="2">
-        <f>B16*(1-M)+C16</f>
+        <f t="shared" si="3"/>
         <v>345.29837138941002</v>
       </c>
       <c r="C17" s="2">
-        <f>B17*alpha/(1+B17*beta)</f>
+        <f t="shared" si="0"/>
         <v>134.10787812855713</v>
       </c>
       <c r="D17" s="2">
-        <f ca="1">D16*(1-M)+E16</f>
-        <v>283.24025599999993</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>349.92130559999998</v>
       </c>
       <c r="E17">
-        <f t="shared" ca="1" si="0"/>
-        <v>140</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>128</v>
       </c>
       <c r="F17" s="1">
-        <f ca="1">(alpha*EXP(_xlfn.NORM.INV(RAND(),0,sd.R)))/(1+D17*beta)</f>
-        <v>0.45593505328836992</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.3853174451217341</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="6"/>
+        <v>1000</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="7"/>
+        <v>0.05</v>
+      </c>
+      <c r="J17">
+        <v>0.5</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>10</v>
       </c>
       <c r="B18" s="2">
-        <f>B17*(1-M)+C17</f>
+        <f t="shared" si="3"/>
         <v>341.28690096220316</v>
       </c>
       <c r="C18" s="2">
-        <f>B18*alpha/(1+B18*beta)</f>
+        <f t="shared" si="0"/>
         <v>133.47120082802883</v>
       </c>
       <c r="D18" s="2">
-        <f ca="1">D17*(1-M)+E17</f>
-        <v>309.94415359999994</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>337.95278336000001</v>
       </c>
       <c r="E18">
-        <f t="shared" ca="1" si="0"/>
-        <v>222</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>151</v>
       </c>
       <c r="F18" s="1">
-        <f ca="1">(alpha*EXP(_xlfn.NORM.INV(RAND(),0,sd.R)))/(1+D18*beta)</f>
-        <v>0.73433257080366754</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.3933545351352945</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="6"/>
+        <v>1000</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="7"/>
+        <v>0.05</v>
+      </c>
+      <c r="J18">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K18">
+        <f>_xlfn.BINOM.INV(H18,MIN(0.9999,I18),J18)</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>11</v>
       </c>
       <c r="B19" s="2">
-        <f>B18*(1-M)+C18</f>
+        <f t="shared" si="3"/>
         <v>338.24334140535075</v>
       </c>
       <c r="C19" s="2">
-        <f>B19*alpha/(1+B19*beta)</f>
+        <f t="shared" si="0"/>
         <v>132.98220843870055</v>
       </c>
       <c r="D19" s="2">
-        <f ca="1">D18*(1-M)+E18</f>
-        <v>407.96649215999992</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>353.77167001600003</v>
       </c>
       <c r="E19">
-        <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>147</v>
       </c>
       <c r="F19" s="1">
-        <f ca="1">(alpha*EXP(_xlfn.NORM.INV(RAND(),0,sd.R)))/(1+D19*beta)</f>
-        <v>0.16703480970414697</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.38280124036491625</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="6"/>
+        <v>1000</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="7"/>
+        <v>0.05</v>
+      </c>
+      <c r="J19">
+        <v>0.6</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>12</v>
       </c>
       <c r="B20" s="2">
-        <f>B19*(1-M)+C19</f>
+        <f t="shared" si="3"/>
         <v>335.92821328191098</v>
       </c>
       <c r="C20" s="2">
-        <f>B20*alpha/(1+B20*beta)</f>
+        <f t="shared" si="0"/>
         <v>132.60676322470172</v>
       </c>
       <c r="D20" s="2">
-        <f ca="1">D19*(1-M)+E19</f>
-        <v>323.77989529599995</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>359.26300200959997</v>
       </c>
       <c r="E20">
-        <f t="shared" ca="1" si="0"/>
-        <v>183</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>137</v>
       </c>
       <c r="F20" s="1">
-        <f ca="1">(alpha*EXP(_xlfn.NORM.INV(RAND(),0,sd.R)))/(1+D20*beta)</f>
-        <v>0.56169655893603909</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.37926895604443445</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="6"/>
+        <v>1000</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="7"/>
+        <v>0.05</v>
+      </c>
+      <c r="J20">
+        <v>0.65</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>13</v>
       </c>
       <c r="B21" s="2">
-        <f>B20*(1-M)+C20</f>
+        <f t="shared" si="3"/>
         <v>334.16369119384831</v>
       </c>
       <c r="C21" s="2">
-        <f>B21*alpha/(1+B21*beta)</f>
+        <f t="shared" si="0"/>
         <v>132.3185619689898</v>
       </c>
       <c r="D21" s="2">
-        <f ca="1">D20*(1-M)+E20</f>
-        <v>377.26793717759995</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>352.55780120575997</v>
       </c>
       <c r="E21">
-        <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>127</v>
       </c>
       <c r="F21" s="1">
-        <f ca="1">(alpha*EXP(_xlfn.NORM.INV(RAND(),0,sd.R)))/(1+D21*beta)</f>
-        <v>0.2060608453145516</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.38359102082215474</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="6"/>
+        <v>1000</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="7"/>
+        <v>0.05</v>
+      </c>
+      <c r="J21">
+        <v>0.7</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>14</v>
       </c>
       <c r="B22" s="2">
-        <f>B21*(1-M)+C21</f>
+        <f t="shared" si="3"/>
         <v>332.81677668529881</v>
       </c>
       <c r="C22" s="2">
-        <f>B22*alpha/(1+B22*beta)</f>
+        <f t="shared" si="0"/>
         <v>132.09736531580216</v>
       </c>
       <c r="D22" s="2">
-        <f ca="1">D21*(1-M)+E21</f>
-        <v>307.36076230655999</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>338.53468072345595</v>
       </c>
       <c r="E22">
         <f ca="1">_xlfn.BINOM.INV(D22,MIN(0.9999,F22),RAND())</f>
-        <v>45</v>
+        <v>131</v>
       </c>
       <c r="F22" s="1">
-        <f ca="1">(alpha*EXP(_xlfn.NORM.INV(RAND(),0,sd.R)))/(1+D22*beta)</f>
-        <v>0.18205174614584946</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.39295605930541305</v>
+      </c>
+      <c r="H22">
+        <f t="shared" ref="H22:H27" si="8">H21</f>
+        <v>1000</v>
+      </c>
+      <c r="I22">
+        <f t="shared" ref="I22:I27" si="9">I21</f>
+        <v>0.05</v>
+      </c>
+      <c r="J22">
+        <v>0.75</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>15</v>
       </c>
       <c r="B23" s="2">
-        <f>B22*(1-M)+C22</f>
+        <f t="shared" si="3"/>
         <v>331.78743132698145</v>
       </c>
       <c r="C23" s="2">
-        <f>B23*alpha/(1+B23*beta)</f>
+        <f t="shared" si="0"/>
         <v>131.92761370851221</v>
       </c>
       <c r="D23" s="2">
-        <f ca="1">D22*(1-M)+E22</f>
-        <v>229.41645738393598</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>334.12080843407352</v>
       </c>
       <c r="E23">
-        <f t="shared" ref="E23:E53" ca="1" si="1">_xlfn.BINOM.INV(D23,MIN(0.9999,F23),RAND())</f>
-        <v>110</v>
+        <f t="shared" ref="E23:E53" ca="1" si="10">_xlfn.BINOM.INV(D23,MIN(0.9999,F23),RAND())</f>
+        <v>137</v>
       </c>
       <c r="F23" s="1">
-        <f ca="1">(alpha*EXP(_xlfn.NORM.INV(RAND(),0,sd.R)))/(1+D23*beta)</f>
-        <v>0.4492638758557862</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.39599916861699275</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="8"/>
+        <v>1000</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="9"/>
+        <v>0.05</v>
+      </c>
+      <c r="J23">
+        <v>0.8</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>16</v>
       </c>
       <c r="B24" s="2">
-        <f>B23*(1-M)+C23</f>
+        <f t="shared" si="3"/>
         <v>331.00007250470105</v>
       </c>
       <c r="C24" s="2">
-        <f>B24*alpha/(1+B24*beta)</f>
+        <f t="shared" si="0"/>
         <v>131.79735249054093</v>
       </c>
       <c r="D24" s="2">
-        <f ca="1">D23*(1-M)+E23</f>
-        <v>247.64987443036159</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>337.47248506044411</v>
       </c>
       <c r="E24">
-        <f t="shared" ca="1" si="1"/>
-        <v>111</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>132</v>
       </c>
       <c r="F24" s="1">
-        <f ca="1">(alpha*EXP(_xlfn.NORM.INV(RAND(),0,sd.R)))/(1+D24*beta)</f>
-        <v>0.47144383577424698</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.39368397747852502</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="8"/>
+        <v>1000</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="9"/>
+        <v>0.05</v>
+      </c>
+      <c r="J24">
+        <v>0.85</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="2"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>17</v>
       </c>
       <c r="B25" s="2">
-        <f>B24*(1-M)+C24</f>
+        <f t="shared" si="3"/>
         <v>330.39739599336156</v>
       </c>
       <c r="C25" s="2">
-        <f>B25*alpha/(1+B25*beta)</f>
+        <f t="shared" si="0"/>
         <v>131.69740048510423</v>
       </c>
       <c r="D25" s="2">
-        <f ca="1">D24*(1-M)+E24</f>
-        <v>259.58992465821694</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>334.48349103626646</v>
       </c>
       <c r="E25">
-        <f t="shared" ca="1" si="1"/>
-        <v>122</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>149</v>
       </c>
       <c r="F25" s="1">
-        <f ca="1">(alpha*EXP(_xlfn.NORM.INV(RAND(),0,sd.R)))/(1+D25*beta)</f>
-        <v>0.51569668302844418</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.39574721774238936</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="8"/>
+        <v>1000</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="9"/>
+        <v>0.05</v>
+      </c>
+      <c r="J25">
+        <v>0.9</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="2"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>18</v>
       </c>
       <c r="B26" s="2">
-        <f>B25*(1-M)+C25</f>
+        <f t="shared" si="3"/>
         <v>329.93583808112112</v>
       </c>
       <c r="C26" s="2">
-        <f>B26*alpha/(1+B26*beta)</f>
+        <f t="shared" si="0"/>
         <v>131.62070857013646</v>
       </c>
       <c r="D26" s="2">
-        <f ca="1">D25*(1-M)+E25</f>
-        <v>277.75395479493017</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>349.69009462175984</v>
       </c>
       <c r="E26">
-        <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>128</v>
       </c>
       <c r="F26" s="1">
-        <f ca="1">(alpha*EXP(_xlfn.NORM.INV(RAND(),0,sd.R)))/(1+D26*beta)</f>
-        <v>0.17823569414199258</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.38546965441417402</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="8"/>
+        <v>1000</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="9"/>
+        <v>0.05</v>
+      </c>
+      <c r="J26">
+        <v>0.95</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>19</v>
       </c>
       <c r="B27" s="2">
-        <f>B26*(1-M)+C26</f>
+        <f t="shared" si="3"/>
         <v>329.58221141880915</v>
       </c>
       <c r="C27" s="2">
-        <f>B27*alpha/(1+B27*beta)</f>
+        <f t="shared" si="0"/>
         <v>131.56186567165679</v>
       </c>
       <c r="D27" s="2">
-        <f ca="1">D26*(1-M)+E26</f>
-        <v>207.65237287695808</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>337.81405677305588</v>
       </c>
       <c r="E27">
-        <f t="shared" ca="1" si="1"/>
-        <v>125</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>145</v>
       </c>
       <c r="F27" s="1">
-        <f ca="1">(alpha*EXP(_xlfn.NORM.INV(RAND(),0,sd.R)))/(1+D27*beta)</f>
-        <v>0.58097769818306</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.39344960256456496</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="8"/>
+        <v>1000</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="9"/>
+        <v>0.05</v>
+      </c>
+      <c r="J27">
+        <v>0.99</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>20</v>
       </c>
       <c r="B28" s="2">
-        <f>B27*(1-M)+C27</f>
+        <f t="shared" si="3"/>
         <v>329.31119252294229</v>
       </c>
       <c r="C28" s="2">
-        <f>B28*alpha/(1+B28*beta)</f>
+        <f t="shared" si="0"/>
         <v>131.51671872671562</v>
       </c>
       <c r="D28" s="2">
-        <f ca="1">D27*(1-M)+E27</f>
-        <v>249.59142372617484</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>347.68843406383348</v>
       </c>
       <c r="E28">
-        <f t="shared" ca="1" si="1"/>
-        <v>112</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>114</v>
       </c>
       <c r="F28" s="1">
-        <f ca="1">(alpha*EXP(_xlfn.NORM.INV(RAND(),0,sd.R)))/(1+D28*beta)</f>
-        <v>0.47794376144729922</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.38679180984599171</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>21</v>
       </c>
       <c r="B29" s="2">
-        <f>B28*(1-M)+C28</f>
+        <f t="shared" si="3"/>
         <v>329.10343424048096</v>
       </c>
       <c r="C29" s="2">
-        <f>B29*alpha/(1+B29*beta)</f>
+        <f t="shared" si="0"/>
         <v>131.48208054906689</v>
       </c>
       <c r="D29" s="2">
-        <f ca="1">D28*(1-M)+E28</f>
-        <v>261.7548542357049</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>322.61306043830007</v>
       </c>
       <c r="E29">
-        <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>139</v>
       </c>
       <c r="F29" s="1">
-        <f ca="1">(alpha*EXP(_xlfn.NORM.INV(RAND(),0,sd.R)))/(1+D29*beta)</f>
-        <v>0.41658267344594657</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.40415903385490942</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>22</v>
       </c>
       <c r="B30" s="2">
-        <f>B29*(1-M)+C29</f>
+        <f t="shared" si="3"/>
         <v>328.94414109335548</v>
       </c>
       <c r="C30" s="2">
-        <f>B30*alpha/(1+B30*beta)</f>
+        <f t="shared" si="0"/>
         <v>131.45550538637269</v>
       </c>
       <c r="D30" s="2">
-        <f ca="1">D29*(1-M)+E29</f>
-        <v>256.05291254142293</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>332.56783626297999</v>
       </c>
       <c r="E30">
-        <f t="shared" ca="1" si="1"/>
-        <v>157</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>130</v>
       </c>
       <c r="F30" s="1">
-        <f ca="1">(alpha*EXP(_xlfn.NORM.INV(RAND(),0,sd.R)))/(1+D30*beta)</f>
-        <v>0.62150076891453609</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.39708096963312822</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>23</v>
       </c>
       <c r="B31" s="2">
-        <f>B30*(1-M)+C30</f>
+        <f t="shared" si="3"/>
         <v>328.82199004238601</v>
       </c>
       <c r="C31" s="2">
-        <f>B31*alpha/(1+B31*beta)</f>
+        <f t="shared" si="0"/>
         <v>131.43511654931746</v>
       </c>
       <c r="D31" s="2">
-        <f ca="1">D30*(1-M)+E30</f>
-        <v>310.63174752485372</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>329.54070175778799</v>
       </c>
       <c r="E31">
-        <f t="shared" ca="1" si="1"/>
-        <v>310</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>138</v>
       </c>
       <c r="F31" s="1">
-        <f ca="1">(alpha*EXP(_xlfn.NORM.INV(RAND(),0,sd.R)))/(1+D31*beta)</f>
-        <v>1.1695882247881915</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.39920707064042932</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>24</v>
       </c>
       <c r="B32" s="2">
-        <f>B31*(1-M)+C31</f>
+        <f t="shared" si="3"/>
         <v>328.72831057474906</v>
       </c>
       <c r="C32" s="2">
-        <f>B32*alpha/(1+B32*beta)</f>
+        <f t="shared" si="0"/>
         <v>131.41947406765456</v>
       </c>
       <c r="D32" s="2">
-        <f ca="1">D31*(1-M)+E31</f>
-        <v>496.37904851491226</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>335.7244210546728</v>
       </c>
       <c r="E32">
-        <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>135</v>
       </c>
       <c r="F32" s="1">
-        <f ca="1">(alpha*EXP(_xlfn.NORM.INV(RAND(),0,sd.R)))/(1+D32*beta)</f>
-        <v>0.18327088622601939</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.39488805688016182</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -2614,24 +2933,24 @@
         <v>25</v>
       </c>
       <c r="B33" s="2">
-        <f>B32*(1-M)+C32</f>
+        <f t="shared" si="3"/>
         <v>328.65646041250398</v>
       </c>
       <c r="C33" s="2">
-        <f>B33*alpha/(1+B33*beta)</f>
+        <f t="shared" si="0"/>
         <v>131.40747309840634</v>
       </c>
       <c r="D33" s="2">
-        <f ca="1">D32*(1-M)+E32</f>
-        <v>394.82742910894734</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>336.4346526328037</v>
       </c>
       <c r="E33">
-        <f t="shared" ca="1" si="1"/>
-        <v>137</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>146</v>
       </c>
       <c r="F33" s="1">
-        <f ca="1">(alpha*EXP(_xlfn.NORM.INV(RAND(),0,sd.R)))/(1+D33*beta)</f>
-        <v>0.37182330211832254</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.39439799473355375</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -2639,24 +2958,24 @@
         <v>26</v>
       </c>
       <c r="B34" s="2">
-        <f>B33*(1-M)+C33</f>
+        <f t="shared" si="3"/>
         <v>328.60134934590872</v>
       </c>
       <c r="C34" s="2">
-        <f>B34*alpha/(1+B34*beta)</f>
+        <f t="shared" si="0"/>
         <v>131.39826595176015</v>
       </c>
       <c r="D34" s="2">
-        <f ca="1">D33*(1-M)+E33</f>
-        <v>373.89645746536837</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>347.8607915796822</v>
       </c>
       <c r="E34">
-        <f t="shared" ca="1" si="1"/>
-        <v>253</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>132</v>
       </c>
       <c r="F34" s="1">
-        <f ca="1">(alpha*EXP(_xlfn.NORM.INV(RAND(),0,sd.R)))/(1+D34*beta)</f>
-        <v>0.69344492650188916</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.38667763715492232</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -2664,24 +2983,24 @@
         <v>27</v>
       </c>
       <c r="B35" s="2">
-        <f>B34*(1-M)+C34</f>
+        <f t="shared" si="3"/>
         <v>328.55907555930537</v>
       </c>
       <c r="C35" s="2">
-        <f>B35*alpha/(1+B35*beta)</f>
+        <f t="shared" si="0"/>
         <v>131.39120225050974</v>
       </c>
       <c r="D35" s="2">
-        <f ca="1">D34*(1-M)+E34</f>
-        <v>477.337874479221</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>340.71647494780927</v>
       </c>
       <c r="E35">
-        <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>138</v>
       </c>
       <c r="F35" s="1">
-        <f ca="1">(alpha*EXP(_xlfn.NORM.INV(RAND(),0,sd.R)))/(1+D35*beta)</f>
-        <v>0.19213291124155846</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.39146901256975425</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -2689,24 +3008,24 @@
         <v>28</v>
       </c>
       <c r="B36" s="2">
-        <f>B35*(1-M)+C35</f>
+        <f t="shared" si="3"/>
         <v>328.52664758609296</v>
       </c>
       <c r="C36" s="2">
-        <f>B36*alpha/(1+B36*beta)</f>
+        <f t="shared" si="0"/>
         <v>131.38578300959654</v>
       </c>
       <c r="D36" s="2">
-        <f ca="1">D35*(1-M)+E35</f>
-        <v>370.40272468753261</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>342.42988496868554</v>
       </c>
       <c r="E36">
-        <f t="shared" ca="1" si="1"/>
-        <v>183</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>136</v>
       </c>
       <c r="F36" s="1">
-        <f ca="1">(alpha*EXP(_xlfn.NORM.INV(RAND(),0,sd.R)))/(1+D36*beta)</f>
-        <v>0.48725280686259259</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.39030918302075535</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -2714,24 +3033,24 @@
         <v>29</v>
       </c>
       <c r="B37" s="2">
-        <f>B36*(1-M)+C36</f>
+        <f t="shared" si="3"/>
         <v>328.50177156125233</v>
       </c>
       <c r="C37" s="2">
-        <f>B37*alpha/(1+B37*beta)</f>
+        <f t="shared" si="0"/>
         <v>131.38162539977097</v>
       </c>
       <c r="D37" s="2">
-        <f ca="1">D36*(1-M)+E36</f>
-        <v>405.24163481251958</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>341.45793098121135</v>
       </c>
       <c r="E37">
-        <f t="shared" ca="1" si="1"/>
-        <v>105</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>125</v>
       </c>
       <c r="F37" s="1">
-        <f ca="1">(alpha*EXP(_xlfn.NORM.INV(RAND(),0,sd.R)))/(1+D37*beta)</f>
-        <v>0.27985318623823352</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.39096626006610774</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -2739,24 +3058,24 @@
         <v>30</v>
       </c>
       <c r="B38" s="2">
-        <f>B37*(1-M)+C37</f>
+        <f t="shared" si="3"/>
         <v>328.48268833652236</v>
       </c>
       <c r="C38" s="2">
-        <f>B38*alpha/(1+B38*beta)</f>
+        <f t="shared" si="0"/>
         <v>131.37843571076419</v>
       </c>
       <c r="D38" s="2">
-        <f ca="1">D37*(1-M)+E37</f>
-        <v>348.14498088751174</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>329.87475858872676</v>
       </c>
       <c r="E38">
-        <f t="shared" ca="1" si="1"/>
-        <v>312</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>131</v>
       </c>
       <c r="F38" s="1">
-        <f ca="1">(alpha*EXP(_xlfn.NORM.INV(RAND(),0,sd.R)))/(1+D38*beta)</f>
-        <v>0.86453402092393083</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.3989712265805706</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -2764,24 +3083,24 @@
         <v>31</v>
       </c>
       <c r="B39" s="2">
-        <f>B38*(1-M)+C38</f>
+        <f t="shared" si="3"/>
         <v>328.46804871267761</v>
       </c>
       <c r="C39" s="2">
-        <f>B39*alpha/(1+B39*beta)</f>
+        <f t="shared" si="0"/>
         <v>131.37598860665136</v>
       </c>
       <c r="D39" s="2">
-        <f ca="1">D38*(1-M)+E38</f>
-        <v>520.88698853250708</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>328.92485515323608</v>
       </c>
       <c r="E39">
-        <f t="shared" ca="1" si="1"/>
-        <v>303</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>131</v>
       </c>
       <c r="F39" s="1">
-        <f ca="1">(alpha*EXP(_xlfn.NORM.INV(RAND(),0,sd.R)))/(1+D39*beta)</f>
-        <v>0.58260297836936115</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.39964234096701123</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -2789,24 +3108,24 @@
         <v>32</v>
       </c>
       <c r="B40" s="2">
-        <f>B39*(1-M)+C39</f>
+        <f t="shared" si="3"/>
         <v>328.45681783425789</v>
       </c>
       <c r="C40" s="2">
-        <f>B40*alpha/(1+B40*beta)</f>
+        <f t="shared" si="0"/>
         <v>131.37411120945711</v>
       </c>
       <c r="D40" s="2">
-        <f ca="1">D39*(1-M)+E39</f>
-        <v>615.5321931195042</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>328.35491309194163</v>
       </c>
       <c r="E40">
-        <f t="shared" ca="1" si="1"/>
-        <v>132</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>130</v>
       </c>
       <c r="F40" s="1">
-        <f ca="1">(alpha*EXP(_xlfn.NORM.INV(RAND(),0,sd.R)))/(1+D40*beta)</f>
-        <v>0.20628536900347405</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.40004599150056475</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -2814,24 +3133,24 @@
         <v>33</v>
       </c>
       <c r="B41" s="2">
-        <f>B40*(1-M)+C40</f>
+        <f t="shared" si="3"/>
         <v>328.44820191001185</v>
       </c>
       <c r="C41" s="2">
-        <f>B41*alpha/(1+B41*beta)</f>
+        <f t="shared" si="0"/>
         <v>131.37267088748879</v>
       </c>
       <c r="D41" s="2">
-        <f ca="1">D40*(1-M)+E40</f>
-        <v>501.31931587170249</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>327.01294785516495</v>
       </c>
       <c r="E41">
-        <f t="shared" ca="1" si="1"/>
-        <v>154</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>128</v>
       </c>
       <c r="F41" s="1">
-        <f ca="1">(alpha*EXP(_xlfn.NORM.INV(RAND(),0,sd.R)))/(1+D41*beta)</f>
-        <v>0.30082186150010992</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.40099973304301373</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -2839,24 +3158,24 @@
         <v>34</v>
       </c>
       <c r="B42" s="2">
-        <f>B41*(1-M)+C41</f>
+        <f t="shared" si="3"/>
         <v>328.44159203349591</v>
       </c>
       <c r="C42" s="2">
-        <f>B42*alpha/(1+B42*beta)</f>
+        <f t="shared" si="0"/>
         <v>131.37156588621883</v>
       </c>
       <c r="D42" s="2">
-        <f ca="1">D41*(1-M)+E41</f>
-        <v>454.79158952302146</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>324.20776871309897</v>
       </c>
       <c r="E42">
-        <f t="shared" ca="1" si="1"/>
-        <v>175</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>137</v>
       </c>
       <c r="F42" s="1">
-        <f ca="1">(alpha*EXP(_xlfn.NORM.INV(RAND(),0,sd.R)))/(1+D42*beta)</f>
-        <v>0.40889450906393671</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.40300830802780246</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -2864,24 +3183,24 @@
         <v>35</v>
       </c>
       <c r="B43" s="2">
-        <f>B42*(1-M)+C42</f>
+        <f t="shared" si="3"/>
         <v>328.43652110631638</v>
       </c>
       <c r="C43" s="2">
-        <f>B43*alpha/(1+B43*beta)</f>
+        <f t="shared" si="0"/>
         <v>131.37071814012995</v>
       </c>
       <c r="D43" s="2">
-        <f ca="1">D42*(1-M)+E42</f>
-        <v>447.87495371381289</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>331.52466122785938</v>
       </c>
       <c r="E43">
-        <f t="shared" ca="1" si="1"/>
-        <v>194</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>135</v>
       </c>
       <c r="F43" s="1">
-        <f ca="1">(alpha*EXP(_xlfn.NORM.INV(RAND(),0,sd.R)))/(1+D43*beta)</f>
-        <v>0.41666394447466421</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.39781105602211847</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -2889,24 +3208,24 @@
         <v>36</v>
       </c>
       <c r="B44" s="2">
-        <f>B43*(1-M)+C43</f>
+        <f t="shared" si="3"/>
         <v>328.43263080391978</v>
       </c>
       <c r="C44" s="2">
-        <f>B44*alpha/(1+B44*beta)</f>
+        <f t="shared" si="0"/>
         <v>131.37006775788248</v>
       </c>
       <c r="D44" s="2">
-        <f ca="1">D43*(1-M)+E43</f>
-        <v>462.7249722282877</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>333.91479673671563</v>
       </c>
       <c r="E44">
-        <f t="shared" ca="1" si="1"/>
-        <v>179</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>128</v>
       </c>
       <c r="F44" s="1">
-        <f ca="1">(alpha*EXP(_xlfn.NORM.INV(RAND(),0,sd.R)))/(1+D44*beta)</f>
-        <v>0.37383469277930348</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.3961423555294088</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -2914,24 +3233,24 @@
         <v>37</v>
       </c>
       <c r="B45" s="2">
-        <f>B44*(1-M)+C44</f>
+        <f t="shared" si="3"/>
         <v>328.42964624023432</v>
       </c>
       <c r="C45" s="2">
-        <f>B45*alpha/(1+B45*beta)</f>
+        <f t="shared" si="0"/>
         <v>131.36956879130125</v>
       </c>
       <c r="D45" s="2">
-        <f ca="1">D44*(1-M)+E44</f>
-        <v>456.6349833369726</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>328.34887804202936</v>
       </c>
       <c r="E45">
-        <f t="shared" ca="1" si="1"/>
-        <v>131</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>132</v>
       </c>
       <c r="F45" s="1">
-        <f ca="1">(alpha*EXP(_xlfn.NORM.INV(RAND(),0,sd.R)))/(1+D45*beta)</f>
-        <v>0.28406494920889463</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.40005031008459818</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -2939,24 +3258,24 @@
         <v>38</v>
       </c>
       <c r="B46" s="2">
-        <f>B45*(1-M)+C45</f>
+        <f t="shared" si="3"/>
         <v>328.42735653544185</v>
       </c>
       <c r="C46" s="2">
-        <f>B46*alpha/(1+B46*beta)</f>
+        <f t="shared" si="0"/>
         <v>131.36918598933369</v>
       </c>
       <c r="D46" s="2">
-        <f ca="1">D45*(1-M)+E45</f>
-        <v>404.98099000218355</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>329.00932682521761</v>
       </c>
       <c r="E46">
-        <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>144</v>
       </c>
       <c r="F46" s="1">
-        <f ca="1">(alpha*EXP(_xlfn.NORM.INV(RAND(),0,sd.R)))/(1+D46*beta)</f>
-        <v>0.29617067004819086</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.3995825544223599</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -2964,24 +3283,24 @@
         <v>39</v>
       </c>
       <c r="B47" s="2">
-        <f>B46*(1-M)+C46</f>
+        <f t="shared" si="3"/>
         <v>328.42559991059875</v>
       </c>
       <c r="C47" s="2">
-        <f>B47*alpha/(1+B47*beta)</f>
+        <f t="shared" si="0"/>
         <v>131.36889230768949</v>
       </c>
       <c r="D47" s="2">
-        <f ca="1">D46*(1-M)+E46</f>
-        <v>341.9885940013101</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>341.40559609513059</v>
       </c>
       <c r="E47">
-        <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>132</v>
       </c>
       <c r="F47" s="1">
-        <f ca="1">(alpha*EXP(_xlfn.NORM.INV(RAND(),0,sd.R)))/(1+D47*beta)</f>
-        <v>0.27017042124195462</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.39100164621489919</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -2989,24 +3308,24 @@
         <v>40</v>
       </c>
       <c r="B48" s="2">
-        <f>B47*(1-M)+C47</f>
+        <f t="shared" si="3"/>
         <v>328.42425225404872</v>
       </c>
       <c r="C48" s="2">
-        <f>B48*alpha/(1+B48*beta)</f>
+        <f t="shared" si="0"/>
         <v>131.36866699824429</v>
       </c>
       <c r="D48" s="2">
-        <f ca="1">D47*(1-M)+E47</f>
-        <v>305.19315640078605</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>336.84335765707834</v>
       </c>
       <c r="E48">
-        <f t="shared" ca="1" si="1"/>
-        <v>129</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>130</v>
       </c>
       <c r="F48" s="1">
-        <f ca="1">(alpha*EXP(_xlfn.NORM.INV(RAND(),0,sd.R)))/(1+D48*beta)</f>
-        <v>0.40599568793568486</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.39411652000245401</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -3014,24 +3333,24 @@
         <v>41</v>
       </c>
       <c r="B49" s="2">
-        <f>B48*(1-M)+C48</f>
+        <f t="shared" si="3"/>
         <v>328.42321835067355</v>
       </c>
       <c r="C49" s="2">
-        <f>B49*alpha/(1+B49*beta)</f>
+        <f t="shared" si="0"/>
         <v>131.36849414323981</v>
       </c>
       <c r="D49" s="2">
-        <f ca="1">D48*(1-M)+E48</f>
-        <v>312.11589384047159</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>332.10601459424697</v>
       </c>
       <c r="E49">
-        <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>134</v>
       </c>
       <c r="F49" s="1">
-        <f ca="1">(alpha*EXP(_xlfn.NORM.INV(RAND(),0,sd.R)))/(1+D49*beta)</f>
-        <v>0.21791773201344253</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.39740387714753217</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -3039,24 +3358,24 @@
         <v>42</v>
       </c>
       <c r="B50" s="2">
-        <f>B49*(1-M)+C49</f>
+        <f t="shared" si="3"/>
         <v>328.42242515364393</v>
       </c>
       <c r="C50" s="2">
-        <f>B50*alpha/(1+B50*beta)</f>
+        <f t="shared" si="0"/>
         <v>131.36836153073136</v>
       </c>
       <c r="D50" s="2">
-        <f ca="1">D49*(1-M)+E49</f>
-        <v>249.26953630428295</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>333.26360875654814</v>
       </c>
       <c r="E50">
-        <f t="shared" ca="1" si="1"/>
-        <v>154</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>138</v>
       </c>
       <c r="F50" s="1">
-        <f ca="1">(alpha*EXP(_xlfn.NORM.INV(RAND(),0,sd.R)))/(1+D50*beta)</f>
-        <v>0.63824069984872023</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.39659554902217581</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -3064,24 +3383,24 @@
         <v>43</v>
       </c>
       <c r="B51" s="2">
-        <f>B50*(1-M)+C50</f>
+        <f t="shared" si="3"/>
         <v>328.42181662291773</v>
       </c>
       <c r="C51" s="2">
-        <f>B51*alpha/(1+B51*beta)</f>
+        <f t="shared" si="0"/>
         <v>131.36825979183988</v>
       </c>
       <c r="D51" s="2">
-        <f ca="1">D50*(1-M)+E50</f>
-        <v>303.56172178256975</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>337.95816525392888</v>
       </c>
       <c r="E51">
-        <f t="shared" ca="1" si="1"/>
-        <v>112</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>131</v>
       </c>
       <c r="F51" s="1">
-        <f ca="1">(alpha*EXP(_xlfn.NORM.INV(RAND(),0,sd.R)))/(1+D51*beta)</f>
-        <v>0.3772186739905154</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.39335095148239585</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -3089,24 +3408,24 @@
         <v>44</v>
       </c>
       <c r="B52" s="2">
-        <f>B51*(1-M)+C51</f>
+        <f t="shared" si="3"/>
         <v>328.42134976559055</v>
       </c>
       <c r="C52" s="2">
-        <f>B52*alpha/(1+B52*beta)</f>
+        <f t="shared" si="0"/>
         <v>131.36818173885845</v>
       </c>
       <c r="D52" s="2">
-        <f ca="1">D51*(1-M)+E51</f>
-        <v>294.13703306954187</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>333.77489915235731</v>
       </c>
       <c r="E52">
-        <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>117</v>
       </c>
       <c r="F52" s="1">
-        <f ca="1">(alpha*EXP(_xlfn.NORM.INV(RAND(),0,sd.R)))/(1+D52*beta)</f>
-        <v>0.25708942894039988</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.39623953209562912</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -3114,24 +3433,24 @@
         <v>45</v>
       </c>
       <c r="B53" s="2">
-        <f>B52*(1-M)+C52</f>
+        <f t="shared" si="3"/>
         <v>328.42099159821277</v>
       </c>
       <c r="C53" s="2">
-        <f>B53*alpha/(1+B53*beta)</f>
+        <f t="shared" si="0"/>
         <v>131.3681218574537</v>
       </c>
       <c r="D53" s="2">
-        <f ca="1">D52*(1-M)+E52</f>
-        <v>256.48221984172511</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>317.26493949141434</v>
       </c>
       <c r="E53">
-        <f t="shared" ca="1" si="1"/>
-        <v>120</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>132</v>
       </c>
       <c r="F53" s="1">
-        <f ca="1">(alpha*EXP(_xlfn.NORM.INV(RAND(),0,sd.R)))/(1+D53*beta)</f>
-        <v>0.49468062052588868</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.40806698741714564</v>
       </c>
     </row>
   </sheetData>
